--- a/src/test/resource/dataTest/TestData.xlsx
+++ b/src/test/resource/dataTest/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Test Case Name</t>
   </si>
